--- a/src/test/java/testData/TestData.xlsx
+++ b/src/test/java/testData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -30,18 +30,12 @@
     <t>Browser</t>
   </si>
   <si>
-    <t>Mozilla</t>
-  </si>
-  <si>
     <t>First Name</t>
   </si>
   <si>
     <t>Last Name</t>
   </si>
   <si>
-    <t>Phone</t>
-  </si>
-  <si>
     <t>Result</t>
   </si>
   <si>
@@ -60,14 +54,21 @@
     <t>base123</t>
   </si>
   <si>
+    <t>Chrome</t>
+  </si>
+  <si>
     <t>Fail</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,7 +93,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -105,8 +106,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -153,32 +160,89 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -188,9 +252,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -228,7 +292,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -300,7 +364,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -474,24 +538,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -504,42 +567,36 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="F2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="4">
-        <v>662234077</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="G2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -558,7 +615,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -570,7 +627,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
